--- a/backend/backend/data/pipelines/smta线_20251202072940_MatriQ.xlsx
+++ b/backend/backend/data/pipelines/smta线_20251202072940_MatriQ.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J1"/>
+  <dimension ref="A1:J4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -473,6 +473,159 @@
         </is>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2025-12-02 08:34:30</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>CXPO202507250025</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>500</v>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>600720186 184 5000
+GR 0603 J 1K
+&lt;div style="text-align: center;"&gt;&lt;img src="imgs/img_in_image_box_685_170_845_257.jpg" alt="Image" width="12%" /&gt;&lt;/div&gt;
+1
+P O : CXPO202507250025
+DES: GR0603 5% 1K 1/10W
+QTY:5000 PCS
+D/C:2538
+&lt;div style="text-align: center;"&gt;&lt;img src="imgs/img_in_image_box_758_1139_862_1264.jpg" alt="Image" width="8%" /&gt;&lt;/div&gt;
+MPN:GR0603J1KT5G00</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>600720186 184 5000
+GR 0603 J 1K
+&lt;div style="text-align: center;"&gt;&lt;img src="imgs/img_in_image_box_685_170_845_257.jpg" alt="Image" width="12%" /&gt;&lt;/div&gt;
+1
+P O : CXPO202507250025
+DES: GR0603 5% 1K 1/10W
+QTY:5000 PCS
+D/C:2538
+&lt;div style="text-align: center;"&gt;&lt;img src="imgs/img_in_image_box_758_1139_862_1264.jpg" alt="Image" width="8%" /&gt;&lt;/div&gt;
+MPN:GR0603J1KT5G00</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>b0d19147d00edd43d42236a72785e6dc.jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2025-12-02 09:42:31</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>CXPO202507250025</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>500</v>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>600720186 184 5000
+GR 0603 J 1K
+&lt;div style="text-align: center;"&gt;&lt;img src="imgs/img_in_image_box_685_170_845_257.jpg" alt="Image" width="12%" /&gt;&lt;/div&gt;
+1
+P O : CXPO202507250025
+DES: GR0603 5% 1K 1/10W
+QTY:5000 PCS
+D/C:2538
+&lt;div style="text-align: center;"&gt;&lt;img src="imgs/img_in_image_box_758_1139_862_1264.jpg" alt="Image" width="8%" /&gt;&lt;/div&gt;
+MPN:GR0603J1KT5G00</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>600720186 184 5000
+GR 0603 J 1K
+&lt;div style="text-align: center;"&gt;&lt;img src="imgs/img_in_image_box_685_170_845_257.jpg" alt="Image" width="12%" /&gt;&lt;/div&gt;
+1
+P O : CXPO202507250025
+DES: GR0603 5% 1K 1/10W
+QTY:5000 PCS
+D/C:2538
+&lt;div style="text-align: center;"&gt;&lt;img src="imgs/img_in_image_box_758_1139_862_1264.jpg" alt="Image" width="8%" /&gt;&lt;/div&gt;
+MPN:GR0603J1KT5G00</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>b0d19147d00edd43d42236a72785e6dc.jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2025-12-02 09:43:41</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>CXPO202507250025</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>500</v>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>600720186 184 5000
+GR 0603 J 1K
+&lt;div style="text-align: center;"&gt;&lt;img src="imgs/img_in_image_box_685_170_845_257.jpg" alt="Image" width="12%" /&gt;&lt;/div&gt;
+1
+P O : CXPO202507250025
+DES: GR0603 5% 1K 1/10W
+QTY:5000 PCS
+D/C:2538
+&lt;div style="text-align: center;"&gt;&lt;img src="imgs/img_in_image_box_758_1139_862_1264.jpg" alt="Image" width="8%" /&gt;&lt;/div&gt;
+MPN:GR0603J1KT5G00</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>600720186 184 5000
+GR 0603 J 1K
+&lt;div style="text-align: center;"&gt;&lt;img src="imgs/img_in_image_box_685_170_845_257.jpg" alt="Image" width="12%" /&gt;&lt;/div&gt;
+1
+P O : CXPO202507250025
+DES: GR0603 5% 1K 1/10W
+QTY:5000 PCS
+D/C:2538
+&lt;div style="text-align: center;"&gt;&lt;img src="imgs/img_in_image_box_758_1139_862_1264.jpg" alt="Image" width="8%" /&gt;&lt;/div&gt;
+MPN:GR0603J1KT5G00</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>b0d19147d00edd43d42236a72785e6dc.jpg</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/backend/backend/data/pipelines/smta线_20251202072940_MatriQ.xlsx
+++ b/backend/backend/data/pipelines/smta线_20251202072940_MatriQ.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J4"/>
+  <dimension ref="A1:J5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -626,6 +626,57 @@
         </is>
       </c>
     </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2025-12-03 01:04:10</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>CXPO202507250025</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>500</v>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>600720186 184 5000
+GR 0603 J 1K
+&lt;div style="text-align: center;"&gt;&lt;img src="imgs/img_in_image_box_685_170_845_257.jpg" alt="Image" width="12%" /&gt;&lt;/div&gt;
+1
+P O : CXPO202507250025
+DES: GR0603 5% 1K 1/10W
+QTY:5000 PCS
+D/C:2538
+&lt;div style="text-align: center;"&gt;&lt;img src="imgs/img_in_image_box_758_1139_862_1264.jpg" alt="Image" width="8%" /&gt;&lt;/div&gt;
+MPN:GR0603J1KT5G00</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>600720186 184 5000
+GR 0603 J 1K
+&lt;div style="text-align: center;"&gt;&lt;img src="imgs/img_in_image_box_685_170_845_257.jpg" alt="Image" width="12%" /&gt;&lt;/div&gt;
+1
+P O : CXPO202507250025
+DES: GR0603 5% 1K 1/10W
+QTY:5000 PCS
+D/C:2538
+&lt;div style="text-align: center;"&gt;&lt;img src="imgs/img_in_image_box_758_1139_862_1264.jpg" alt="Image" width="8%" /&gt;&lt;/div&gt;
+MPN:GR0603J1KT5G00</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>b0d19147d00edd43d42236a72785e6dc.jpg</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
